--- a/Greyform-linux-ros1/Python_Application/exporteddatassss(with TMP)(draft).xlsx
+++ b/Greyform-linux-ros1/Python_Application/exporteddatassss(with TMP)(draft).xlsx
@@ -260,7 +260,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -307,7 +307,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -354,7 +354,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -401,7 +401,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -448,7 +448,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -495,7 +495,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -542,7 +542,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -636,7 +636,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -730,7 +730,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -777,7 +777,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -824,7 +824,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -918,7 +918,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -965,7 +965,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>blank</t>
         </is>
       </c>
       <c r="J25" t="n">

--- a/Greyform-linux-ros1/Python_Application/exporteddatassss(with TMP)(draft).xlsx
+++ b/Greyform-linux-ros1/Python_Application/exporteddatassss(with TMP)(draft).xlsx
@@ -138,6 +138,4158 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Marking type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Point number/name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Position X (mm)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Position Y (mm)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Position Z (mm)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Wall Number</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Shape type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Quadrant</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed : 9</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Width</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Orientation</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Diameter</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TMP1S2a2:TMP1S2a2:1270014</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1330</v>
+      </c>
+      <c r="E2" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2" t="n">
+        <v>450</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>150</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Basic Wall:BSS.10 Glass:1070941</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>850</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>237</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>125</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1070744</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-460</v>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1045</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>120</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1070719</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>-455</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1020</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>225</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TMP1S2a1:TMP1S2a1:1270013</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1330</v>
+      </c>
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>115</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Basic Wall:BSS.50:1070714</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>229</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TMP1S2b4:TMP1S2b4:1270018</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>70</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-750</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>236</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TMP1S2c1:TMP1S2c1:1270026</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-925</v>
+      </c>
+      <c r="E9" t="n">
+        <v>70</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>235</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TMP1S2c2:TMP1S2c2:1270025</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-925</v>
+      </c>
+      <c r="E10" t="n">
+        <v>70</v>
+      </c>
+      <c r="F10" t="n">
+        <v>450</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>234</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TMP1S2c3:TMP1S2c3:1270024</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-925</v>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-150</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>233</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TMP1S2c4:TMP1S2c4:1270023</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-925</v>
+      </c>
+      <c r="E12" t="n">
+        <v>70</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-750</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>232</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TMP1S2b1:TMP1S2b1:1270021</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>70</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>231</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TMP1S2b2:TMP1S2b2:1270020</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>70</v>
+      </c>
+      <c r="F14" t="n">
+        <v>450</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>230</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TMP1S2b3:TMP1S2b3:1270019</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>25</v>
+      </c>
+      <c r="E15" t="n">
+        <v>70</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-150</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>228</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TMP1S2a4:TMP1S2a4:1270016</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1330</v>
+      </c>
+      <c r="E16" t="n">
+        <v>70</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-750</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>227</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TMP1S2a3:TMP1S2a3:1270015</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1330</v>
+      </c>
+      <c r="E17" t="n">
+        <v>70</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-150</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>244</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TMP2S2b1:TMP2S2b1:1270036</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>70</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-300</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>242</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TMP2S2b3:TMP2S2b3:1270034</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>70</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-300</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-150</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>241</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TMP2S2b4:TMP2S2b4:1270033</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>70</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-300</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-750</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>240</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TMP2S2a1:TMP2S2a1:1270031</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>70</v>
+      </c>
+      <c r="E21" t="n">
+        <v>300</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>237</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>TMP2S2a4:TMP2S2a4:1270028</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>70</v>
+      </c>
+      <c r="E22" t="n">
+        <v>300</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-750</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>239</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>TMP2S2a2:TMP2S2a2:1270030</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>70</v>
+      </c>
+      <c r="E23" t="n">
+        <v>300</v>
+      </c>
+      <c r="F23" t="n">
+        <v>450</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>116</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1070715</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>60</v>
+      </c>
+      <c r="E24" t="n">
+        <v>920</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-1020</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>110</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Basic Wall:BSS.50:1070709</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>25</v>
+      </c>
+      <c r="E25" t="n">
+        <v>970</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>238</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>TMP2S2a3:TMP2S2a3:1270029</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>70</v>
+      </c>
+      <c r="E26" t="n">
+        <v>300</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-150</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>243</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>TMP2S2b2:TMP2S2b2:1270035</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>70</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-300</v>
+      </c>
+      <c r="F27" t="n">
+        <v>450</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>54</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BSS.Shallow_FT:150 x 150MM:1016058</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>-812</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1575</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-1050</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>250</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>TMP3S2a1:TMP3S2a1:1270043</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>750</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-750</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>111</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Basic Wall:BSS.50:1070710</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>920</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1915</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>249</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>TMP3S2b1:TMP3S2b1:1270042</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>150</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-750</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>128</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Basic Wall:BSS.20mm Wall Finishes:1070795</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>900</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1880</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-150</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>248</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>TMP3S2c1:TMP3S2c1:1270041</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>-450</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-750</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>247</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>TMP3S2c2:TMP3S2c2:1270040</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>-450</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1880</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>246</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>TMP3S2b2:TMP3S2b2:1270039</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>150</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1880</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>245</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>TMP3S2a2:TMP3S2a2:1270038</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>750</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1880</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>127</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BOX-UP1:BOX-UP:1070775</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>900</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-1020</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1940</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>257</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>TMP4S2a1:TMP4S2a1:1270051</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1870</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>600</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Basic Wall:BSS.50:1070711</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1915</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-320</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>600</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>255</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>TMP4S2a3:TMP4S2a3:1270049</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1870</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-150</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>600</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>256</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>TMP4S2a2:TMP4S2a2:1270050</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1870</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>450</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>600</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>117</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1070716</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1880</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-320</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-1020</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>600</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>254</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>TMP4S2a4:TMP4S2a4:1270048</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1870</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-750</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>600</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>253</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>TMP4S2b3:TMP4S2b3:1270047</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1870</v>
+      </c>
+      <c r="E44" t="n">
+        <v>300</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-150</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>600</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>252</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>TMP4S2b2:TMP4S2b2:1270046</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1870</v>
+      </c>
+      <c r="E45" t="n">
+        <v>300</v>
+      </c>
+      <c r="F45" t="n">
+        <v>450</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>600</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>251</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>TMP4S2b1:TMP4S2b1:1270045</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1870</v>
+      </c>
+      <c r="E46" t="n">
+        <v>300</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>600</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>258</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>TMP5S2a4:TMP5S2a4:1270053</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1270</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>960</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>259</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>TMP5S2a3:TMP5S2a3:1270054</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1270</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-150</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>960</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>260</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>TMP5S2a2:TMP5S2a2:1270055</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1270</v>
+      </c>
+      <c r="F49" t="n">
+        <v>450</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>960</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>261</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>TMP5S2a1:TMP5S2a1:1270056</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1270</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>960</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>113</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Basic Wall:BSS.50:1070712</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>410</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1315</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>960</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>118</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1070717</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>460</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1280</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-1045</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>960</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BSS.Shallow_FW:BSS.Shallow_FW:1017371</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>190</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1220</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-1052</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>960</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>263</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>TMP6S2b1:TMP6S2b1:1270059</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>2830</v>
+      </c>
+      <c r="E54" t="n">
+        <v>500</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-150</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1340</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>264</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>TMP6S2a4:TMP6S2a4:1270060</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>2830</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-100</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-750</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1340</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>114</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Basic Wall:BSS.50:1070713</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2875</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-620</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1340</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>119</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1070718</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2840</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-600</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-1045</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1340</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>265</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>TMP6S2a3:TMP6S2a3:1270061</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2830</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-100</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-150</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1340</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>267</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>TMP6S2a1:TMP6S2a1:1270063</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2830</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-100</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1340</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>262</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>TMP6S2b2:TMP6S2b2:1270058</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2870</v>
+      </c>
+      <c r="E60" t="n">
+        <v>500</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-750</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1340</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>266</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>TMP6S2a2:TMP6S2a2:1270062</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2830</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-100</v>
+      </c>
+      <c r="F61" t="n">
+        <v>450</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1340</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2705</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>275</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>TMP7S2b3:TMP7S2b3:1270073</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>300</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-450</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>268</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>TMP7S2a4:TMP7S2a4:1270065</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>-450</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>269</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>TMP7S2a3:TMP7S2a3:1270066</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>-450</v>
+      </c>
+      <c r="E64" t="n">
+        <v>600</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>271</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>TMP7S2a1:TMP7S2a1:1270068</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>150</v>
+      </c>
+      <c r="E65" t="n">
+        <v>600</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>272</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>TMP7S2c3:TMP7S2c3:1270070</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>-300</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-450</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>273</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>TMP7S2c2:TMP7S2c2:1270071</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>-300</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>274</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>TMP7S2c1:TMP7S2c1:1270072</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>-300</v>
+      </c>
+      <c r="E68" t="n">
+        <v>450</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>270</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>TMP7S2a2:TMP7S2a2:1270067</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>150</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>121</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Floor:BSS.100:1070722</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>-480</v>
+      </c>
+      <c r="E70" t="n">
+        <v>300</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>122</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Floor:BSS.20mm Floor Finishes (600x600mm):1070729</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>-480</v>
+      </c>
+      <c r="E71" t="n">
+        <v>300</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>123</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Floor:BSS.20mm Floor Finishes (600x150mm):1070734</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>-480</v>
+      </c>
+      <c r="E72" t="n">
+        <v>300</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>124</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Floor:BSS.75:1070739</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>-480</v>
+      </c>
+      <c r="E73" t="n">
+        <v>300</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>133</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Floor:BSS.80:1070816</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>-480</v>
+      </c>
+      <c r="E74" t="n">
+        <v>300</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>138</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Floor:BSS.20mm Floor Finishes (600x150mm):1070893</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>-480</v>
+      </c>
+      <c r="E75" t="n">
+        <v>300</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>152</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Compound Ceiling:BSS.600/1200.Grid:1070966</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>970</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-670</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>276</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>TMP7S2b2:TMP7S2b2:1270074</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>300</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>277</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Tile</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>TMP7S2b1:TMP7S2b1:1270075</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>300</v>
+      </c>
+      <c r="E78" t="n">
+        <v>450</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -252,15 +4404,17 @@
       <c r="F2" t="n">
         <v>-970</v>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H2" t="n">
         <v>6</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -299,15 +4453,17 @@
       <c r="F3" t="n">
         <v>-1000</v>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>6</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -346,15 +4502,17 @@
       <c r="F4" t="n">
         <v>-1000</v>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>6</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -393,15 +4551,17 @@
       <c r="F5" t="n">
         <v>-975</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H5" t="n">
         <v>6</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -440,15 +4600,17 @@
       <c r="F6" t="n">
         <v>-975</v>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>6</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -487,15 +4649,17 @@
       <c r="F7" t="n">
         <v>200</v>
       </c>
-      <c r="G7" t="n">
-        <v>1</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H7" t="n">
         <v>6</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -534,15 +4698,17 @@
       <c r="F8" t="n">
         <v>200</v>
       </c>
-      <c r="G8" t="n">
-        <v>1</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H8" t="n">
         <v>6</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -581,15 +4747,17 @@
       <c r="F9" t="n">
         <v>200</v>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H9" t="n">
         <v>6</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -628,15 +4796,17 @@
       <c r="F10" t="n">
         <v>200</v>
       </c>
-      <c r="G10" t="n">
-        <v>1</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H10" t="n">
         <v>6</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -675,15 +4845,17 @@
       <c r="F11" t="n">
         <v>-1029</v>
       </c>
-      <c r="G11" t="n">
-        <v>3</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>6</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -722,15 +4894,17 @@
       <c r="F12" t="n">
         <v>-150</v>
       </c>
-      <c r="G12" t="n">
-        <v>3</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="H12" t="n">
         <v>6</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -769,15 +4943,17 @@
       <c r="F13" t="n">
         <v>-150</v>
       </c>
-      <c r="G13" t="n">
-        <v>3</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="H13" t="n">
         <v>6</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -816,15 +4992,17 @@
       <c r="F14" t="n">
         <v>-1000</v>
       </c>
-      <c r="G14" t="n">
-        <v>3</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="H14" t="n">
         <v>6</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -863,15 +5041,17 @@
       <c r="F15" t="n">
         <v>150</v>
       </c>
-      <c r="G15" t="n">
-        <v>3</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="H15" t="n">
         <v>6</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -910,15 +5090,17 @@
       <c r="F16" t="n">
         <v>-700</v>
       </c>
-      <c r="G16" t="n">
-        <v>3</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="H16" t="n">
         <v>6</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -957,15 +5139,17 @@
       <c r="F17" t="n">
         <v>-1005</v>
       </c>
-      <c r="G17" t="n">
-        <v>3</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="H17" t="n">
         <v>6</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1004,15 +5188,17 @@
       <c r="F18" t="n">
         <v>-1005</v>
       </c>
-      <c r="G18" t="n">
-        <v>3</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="H18" t="n">
         <v>6</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1051,15 +5237,17 @@
       <c r="F19" t="n">
         <v>-1035</v>
       </c>
-      <c r="G19" t="n">
-        <v>3</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="H19" t="n">
         <v>6</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1098,15 +5286,17 @@
       <c r="F20" t="n">
         <v>-418</v>
       </c>
-      <c r="G20" t="n">
-        <v>3</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="H20" t="n">
         <v>6</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1145,15 +5335,17 @@
       <c r="F21" t="n">
         <v>-690</v>
       </c>
-      <c r="G21" t="n">
-        <v>3</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="H21" t="n">
         <v>6</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1192,15 +5384,17 @@
       <c r="F22" t="n">
         <v>-350</v>
       </c>
-      <c r="G22" t="n">
-        <v>4</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="H22" t="n">
         <v>6</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1239,15 +5433,17 @@
       <c r="F23" t="n">
         <v>-350</v>
       </c>
-      <c r="G23" t="n">
-        <v>4</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="H23" t="n">
         <v>6</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1286,15 +5482,17 @@
       <c r="F24" t="n">
         <v>-350</v>
       </c>
-      <c r="G24" t="n">
-        <v>4</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="H24" t="n">
         <v>6</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1333,15 +5531,17 @@
       <c r="F25" t="n">
         <v>-760</v>
       </c>
-      <c r="G25" t="n">
-        <v>4</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="H25" t="n">
         <v>6</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1380,15 +5580,17 @@
       <c r="F26" t="n">
         <v>-975</v>
       </c>
-      <c r="G26" t="n">
-        <v>5</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="H26" t="n">
         <v>6</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1427,15 +5629,17 @@
       <c r="F27" t="n">
         <v>-1402</v>
       </c>
-      <c r="G27" t="n">
-        <v>5</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="H27" t="n">
         <v>6</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1474,15 +5678,17 @@
       <c r="F28" t="n">
         <v>-1452</v>
       </c>
-      <c r="G28" t="n">
-        <v>5</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="H28" t="n">
         <v>6</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1521,15 +5727,17 @@
       <c r="F29" t="n">
         <v>-1025</v>
       </c>
-      <c r="G29" t="n">
-        <v>5</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="H29" t="n">
         <v>6</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1568,15 +5776,17 @@
       <c r="F30" t="n">
         <v>-156</v>
       </c>
-      <c r="G30" t="n">
-        <v>5</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="H30" t="n">
         <v>6</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -1615,15 +5825,17 @@
       <c r="F31" t="n">
         <v>-25</v>
       </c>
-      <c r="G31" t="n">
-        <v>5</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="H31" t="n">
         <v>6</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -1662,15 +5874,17 @@
       <c r="F32" t="n">
         <v>-1000</v>
       </c>
-      <c r="G32" t="n">
-        <v>5</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="H32" t="n">
         <v>6</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -1709,15 +5923,17 @@
       <c r="F33" t="n">
         <v>-1000</v>
       </c>
-      <c r="G33" t="n">
-        <v>5</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="H33" t="n">
         <v>6</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -1756,15 +5972,17 @@
       <c r="F34" t="n">
         <v>-975</v>
       </c>
-      <c r="G34" t="n">
-        <v>5</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="H34" t="n">
         <v>6</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -1803,15 +6021,17 @@
       <c r="F35" t="n">
         <v>-121</v>
       </c>
-      <c r="G35" t="n">
-        <v>5</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="H35" t="n">
         <v>6</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -1850,15 +6070,17 @@
       <c r="F36" t="n">
         <v>-2021</v>
       </c>
-      <c r="G36" t="n">
-        <v>5</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="H36" t="n">
         <v>6</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -1897,15 +6119,17 @@
       <c r="F37" t="n">
         <v>-2071</v>
       </c>
-      <c r="G37" t="n">
-        <v>5</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="H37" t="n">
         <v>6</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -1944,15 +6168,17 @@
       <c r="F38" t="n">
         <v>-121</v>
       </c>
-      <c r="G38" t="n">
-        <v>5</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="H38" t="n">
         <v>6</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -1991,15 +6217,17 @@
       <c r="F39" t="n">
         <v>99</v>
       </c>
-      <c r="G39" t="n">
-        <v>5</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="H39" t="n">
         <v>6</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2038,15 +6266,17 @@
       <c r="F40" t="n">
         <v>99</v>
       </c>
-      <c r="G40" t="n">
-        <v>5</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="H40" t="n">
         <v>6</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2095,7 +6325,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2144,7 +6374,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2193,7 +6423,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2242,7 +6472,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2291,7 +6521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
       <c r="J45" t="n">
